--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf8-Tnfrsf8.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf8-Tnfrsf8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,123 +525,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.20121298804213</v>
+        <v>1.400976666666667</v>
       </c>
       <c r="H2">
-        <v>1.20121298804213</v>
+        <v>4.20293</v>
       </c>
       <c r="I2">
-        <v>0.9089494542459979</v>
+        <v>0.4231668317460957</v>
       </c>
       <c r="J2">
-        <v>0.9089494542459979</v>
+        <v>0.4286166496121378</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.435504534116309</v>
+        <v>0.665457</v>
       </c>
       <c r="N2">
-        <v>0.435504534116309</v>
+        <v>1.996371</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.4592369525951267</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4592369525951268</v>
       </c>
       <c r="Q2">
-        <v>0.5231337027317473</v>
+        <v>0.93228972967</v>
       </c>
       <c r="R2">
-        <v>0.5231337027317473</v>
+        <v>8.390607567030001</v>
       </c>
       <c r="S2">
-        <v>0.9089494542459979</v>
+        <v>0.1943338462504117</v>
       </c>
       <c r="T2">
-        <v>0.9089494542459979</v>
+        <v>0.1968366039994114</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.400976666666667</v>
+      </c>
+      <c r="H3">
+        <v>4.20293</v>
+      </c>
+      <c r="I3">
+        <v>0.4231668317460957</v>
+      </c>
+      <c r="J3">
+        <v>0.4286166496121378</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.414652</v>
+      </c>
+      <c r="N3">
+        <v>1.243956</v>
+      </c>
+      <c r="O3">
+        <v>0.2861545086571702</v>
+      </c>
+      <c r="P3">
+        <v>0.2861545086571702</v>
+      </c>
+      <c r="Q3">
+        <v>0.5809177767866668</v>
+      </c>
+      <c r="R3">
+        <v>5.228259991080001</v>
+      </c>
+      <c r="S3">
+        <v>0.1210910968183154</v>
+      </c>
+      <c r="T3">
+        <v>0.1226505867720438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.400976666666667</v>
+      </c>
+      <c r="H4">
+        <v>4.20293</v>
+      </c>
+      <c r="I4">
+        <v>0.4231668317460957</v>
+      </c>
+      <c r="J4">
+        <v>0.4286166496121378</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.3689403333333334</v>
+      </c>
+      <c r="N4">
+        <v>1.106821</v>
+      </c>
+      <c r="O4">
+        <v>0.2546085387477031</v>
+      </c>
+      <c r="P4">
+        <v>0.2546085387477031</v>
+      </c>
+      <c r="Q4">
+        <v>0.5168767983922223</v>
+      </c>
+      <c r="R4">
+        <v>4.65189118553</v>
+      </c>
+      <c r="S4">
+        <v>0.1077418886773686</v>
+      </c>
+      <c r="T4">
+        <v>0.1091294588406827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>1.596085333333334</v>
+      </c>
+      <c r="H5">
+        <v>4.788256000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.4820996593112978</v>
+      </c>
+      <c r="J5">
+        <v>0.4883084524855795</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.665457</v>
+      </c>
+      <c r="N5">
+        <v>1.996371</v>
+      </c>
+      <c r="O5">
+        <v>0.4592369525951267</v>
+      </c>
+      <c r="P5">
+        <v>0.4592369525951268</v>
+      </c>
+      <c r="Q5">
+        <v>1.062126157664</v>
+      </c>
+      <c r="R5">
+        <v>9.559135418976</v>
+      </c>
+      <c r="S5">
+        <v>0.2213979783892692</v>
+      </c>
+      <c r="T5">
+        <v>0.2242492856459198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>1.596085333333334</v>
+      </c>
+      <c r="H6">
+        <v>4.788256000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.4820996593112978</v>
+      </c>
+      <c r="J6">
+        <v>0.4883084524855795</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.414652</v>
+      </c>
+      <c r="N6">
+        <v>1.243956</v>
+      </c>
+      <c r="O6">
+        <v>0.2861545086571702</v>
+      </c>
+      <c r="P6">
+        <v>0.2861545086571702</v>
+      </c>
+      <c r="Q6">
+        <v>0.6618199756373334</v>
+      </c>
+      <c r="R6">
+        <v>5.956379780736001</v>
+      </c>
+      <c r="S6">
+        <v>0.1379549911340136</v>
+      </c>
+      <c r="T6">
+        <v>0.1397316652941542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>1.596085333333334</v>
+      </c>
+      <c r="H7">
+        <v>4.788256000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.4820996593112978</v>
+      </c>
+      <c r="J7">
+        <v>0.4883084524855795</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.3689403333333334</v>
+      </c>
+      <c r="N7">
+        <v>1.106821</v>
+      </c>
+      <c r="O7">
+        <v>0.2546085387477031</v>
+      </c>
+      <c r="P7">
+        <v>0.2546085387477031</v>
+      </c>
+      <c r="Q7">
+        <v>0.5888602549084446</v>
+      </c>
+      <c r="R7">
+        <v>5.299742294176001</v>
+      </c>
+      <c r="S7">
+        <v>0.122746689788015</v>
+      </c>
+      <c r="T7">
+        <v>0.1243275015455056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1873483333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.562045</v>
+      </c>
+      <c r="I8">
+        <v>0.05658880874740582</v>
+      </c>
+      <c r="J8">
+        <v>0.05731759625576776</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.665457</v>
+      </c>
+      <c r="N8">
+        <v>1.996371</v>
+      </c>
+      <c r="O8">
+        <v>0.4592369525951267</v>
+      </c>
+      <c r="P8">
+        <v>0.4592369525951268</v>
+      </c>
+      <c r="Q8">
+        <v>0.124672259855</v>
+      </c>
+      <c r="R8">
+        <v>1.122050338695</v>
+      </c>
+      <c r="S8">
+        <v>0.0259876720801471</v>
+      </c>
+      <c r="T8">
+        <v>0.02632235823457663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1873483333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.562045</v>
+      </c>
+      <c r="I9">
+        <v>0.05658880874740582</v>
+      </c>
+      <c r="J9">
+        <v>0.05731759625576776</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.414652</v>
+      </c>
+      <c r="N9">
+        <v>1.243956</v>
+      </c>
+      <c r="O9">
+        <v>0.2861545086571702</v>
+      </c>
+      <c r="P9">
+        <v>0.2861545086571702</v>
+      </c>
+      <c r="Q9">
+        <v>0.07768436111333334</v>
+      </c>
+      <c r="R9">
+        <v>0.69915925002</v>
+      </c>
+      <c r="S9">
+        <v>0.01619314276260848</v>
+      </c>
+      <c r="T9">
+        <v>0.01640168859397928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1873483333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.562045</v>
+      </c>
+      <c r="I10">
+        <v>0.05658880874740582</v>
+      </c>
+      <c r="J10">
+        <v>0.05731759625576776</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.3689403333333334</v>
+      </c>
+      <c r="N10">
+        <v>1.106821</v>
+      </c>
+      <c r="O10">
+        <v>0.2546085387477031</v>
+      </c>
+      <c r="P10">
+        <v>0.2546085387477031</v>
+      </c>
+      <c r="Q10">
+        <v>0.06912035654944446</v>
+      </c>
+      <c r="R10">
+        <v>0.622083208945</v>
+      </c>
+      <c r="S10">
+        <v>0.01440799390465023</v>
+      </c>
+      <c r="T10">
+        <v>0.01459354942721185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.120326930850911</v>
-      </c>
-      <c r="H3">
-        <v>0.120326930850911</v>
-      </c>
-      <c r="I3">
-        <v>0.09105054575400207</v>
-      </c>
-      <c r="J3">
-        <v>0.09105054575400207</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.435504534116309</v>
-      </c>
-      <c r="N3">
-        <v>0.435504534116309</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.05240292396187133</v>
-      </c>
-      <c r="R3">
-        <v>0.05240292396187133</v>
-      </c>
-      <c r="S3">
-        <v>0.09105054575400207</v>
-      </c>
-      <c r="T3">
-        <v>0.09105054575400207</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1262855</v>
+      </c>
+      <c r="H11">
+        <v>0.252571</v>
+      </c>
+      <c r="I11">
+        <v>0.03814470019520065</v>
+      </c>
+      <c r="J11">
+        <v>0.02575730164651499</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.665457</v>
+      </c>
+      <c r="N11">
+        <v>1.996371</v>
+      </c>
+      <c r="O11">
+        <v>0.4592369525951267</v>
+      </c>
+      <c r="P11">
+        <v>0.4592369525951268</v>
+      </c>
+      <c r="Q11">
+        <v>0.0840375699735</v>
+      </c>
+      <c r="R11">
+        <v>0.504225419841</v>
+      </c>
+      <c r="S11">
+        <v>0.01751745587529868</v>
+      </c>
+      <c r="T11">
+        <v>0.01182870471521899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.1262855</v>
+      </c>
+      <c r="H12">
+        <v>0.252571</v>
+      </c>
+      <c r="I12">
+        <v>0.03814470019520065</v>
+      </c>
+      <c r="J12">
+        <v>0.02575730164651499</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.414652</v>
+      </c>
+      <c r="N12">
+        <v>1.243956</v>
+      </c>
+      <c r="O12">
+        <v>0.2861545086571702</v>
+      </c>
+      <c r="P12">
+        <v>0.2861545086571702</v>
+      </c>
+      <c r="Q12">
+        <v>0.052364535146</v>
+      </c>
+      <c r="R12">
+        <v>0.314187210876</v>
+      </c>
+      <c r="S12">
+        <v>0.01091527794223271</v>
+      </c>
+      <c r="T12">
+        <v>0.007370567996993017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1262855</v>
+      </c>
+      <c r="H13">
+        <v>0.252571</v>
+      </c>
+      <c r="I13">
+        <v>0.03814470019520065</v>
+      </c>
+      <c r="J13">
+        <v>0.02575730164651499</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.3689403333333334</v>
+      </c>
+      <c r="N13">
+        <v>1.106821</v>
+      </c>
+      <c r="O13">
+        <v>0.2546085387477031</v>
+      </c>
+      <c r="P13">
+        <v>0.2546085387477031</v>
+      </c>
+      <c r="Q13">
+        <v>0.04659181446516667</v>
+      </c>
+      <c r="R13">
+        <v>0.279550886791</v>
+      </c>
+      <c r="S13">
+        <v>0.009711966377669263</v>
+      </c>
+      <c r="T13">
+        <v>0.00655802893430299</v>
       </c>
     </row>
   </sheetData>
